--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="JS XLSX"/>
   <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="false" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
@@ -63,16 +63,16 @@
   <cellStyleXfs/>
   <cellXfs count="4">
     <xf>
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="true" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="2" borderId="1">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="2" borderId="1">
+      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="true" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <numFmts/>
@@ -401,18 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -422,9 +422,9 @@
   </mergeCells>
   <dimension ref="A1:C2"/>
   <cols>
-    <col min="1" max="1" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -62,16 +62,16 @@
   </borders>
   <cellStyleXfs/>
   <cellXfs count="4">
-    <xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="2" borderId="1">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="JS XLSX"/>
-  <workbookPr showObjects="all"/>
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr date1904="false" showObjects="all"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
+  <definedNames/>
+  <calcPr iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>I am a cell!</t>
   </si>
@@ -27,6 +29,8 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -46,13 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -60,65 +58,383 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs/>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <numFmts/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="0">
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
-  <headerFooter>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s"/>
+      <c r="C1" s="3" t="s"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s"/>
+      <c r="B2" s="3" t="s"/>
+      <c r="C2" s="3" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <dimension ref="A1:C2"/>
-  <cols>
-    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3"/>
-      <c r="C1" t="s" s="3"/>
-    </row>
-    <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="3"/>
-      <c r="B2" t="s" s="3"/>
-      <c r="C2" t="s" s="3"/>
-    </row>
-  </sheetData>
 </worksheet>
 </file>
--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr date1904="false" showObjects="all"/>
-  <workbookProtection/>
+  <fileVersion appName="JS XLSX"/>
+  <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
+  <calcPr iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>I am a cell!</t>
   </si>
@@ -29,8 +27,6 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -50,7 +46,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -62,16 +64,17 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
+  <numFmts/>
 </styleSheet>
 </file>
 
@@ -396,45 +399,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <dimension ref="A1:C2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="1" min="1" outlineLevel="0" style="1" width="9.5"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="2" min="2" outlineLevel="0" style="1" width="9.5"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="3" min="3" outlineLevel="0" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s"/>
       <c r="C1" s="3" t="s"/>
     </row>
-    <row r="2">
+    <row outlineLevel="0" r="2">
       <c r="A2" s="3" t="s"/>
       <c r="B2" s="3" t="s"/>
       <c r="C2" s="3" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -6,9 +6,9 @@
   <bookViews>
     <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
 </workbook>
 </file>
@@ -61,16 +61,16 @@
     </border>
   </borders>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -408,9 +408,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -421,22 +421,22 @@
   </mergeCells>
   <dimension ref="A1:C2"/>
   <cols>
-    <col collapsed="0" customWidth="0" hidden="0" max="1" min="1" outlineLevel="0" style="1" width="9.5"/>
-    <col collapsed="0" customWidth="0" hidden="0" max="2" min="2" outlineLevel="0" style="1" width="9.5"/>
-    <col collapsed="0" customWidth="0" hidden="0" max="3" min="3" outlineLevel="0" style="1" width="9.5"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" outlineLevel="0">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s"/>
-      <c r="C1" s="3" t="s"/>
+      <c r="B1" t="s" s="3"/>
+      <c r="C1" t="s" s="3"/>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s"/>
-      <c r="B2" s="3" t="s"/>
-      <c r="C2" s="3" t="s"/>
+    <row r="2" outlineLevel="0">
+      <c r="A2" t="s" s="3"/>
+      <c r="B2" t="s" s="3"/>
+      <c r="C2" t="s" s="3"/>
     </row>
   </sheetData>
 </worksheet>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>I am a cell!</t>
+    <t>I am a cell2!</t>
   </si>
 </sst>
 </file>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -6,9 +6,9 @@
   <bookViews>
     <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
 </workbook>
 </file>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>I am a cell2!</t>
+    <t>I am a cell!</t>
   </si>
 </sst>
 </file>
@@ -61,16 +61,16 @@
     </border>
   </borders>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -408,9 +408,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
@@ -421,22 +421,22 @@
   </mergeCells>
   <dimension ref="A1:C2"/>
   <cols>
-    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="1" min="1" outlineLevel="0" style="1" width="9.5"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="2" min="2" outlineLevel="0" style="1" width="9.5"/>
+    <col collapsed="0" customWidth="0" hidden="0" max="3" min="3" outlineLevel="0" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="2">
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3"/>
-      <c r="C1" t="s" s="3"/>
+      <c r="B1" s="3" t="s"/>
+      <c r="C1" s="3" t="s"/>
     </row>
-    <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="3"/>
-      <c r="B2" t="s" s="3"/>
-      <c r="C2" t="s" s="3"/>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="3" t="s"/>
+      <c r="B2" s="3" t="s"/>
+      <c r="C2" s="3" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="JS XLSX"/>
-  <workbookPr showObjects="all"/>
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr date1904="false" showObjects="all"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
+  <definedNames/>
+  <calcPr iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>I am a cell!</t>
   </si>
@@ -60,6 +62,7 @@
       <bottom style="none"/>
     </border>
   </borders>
+  <cellStyleXfs/>
   <cellXfs count="4">
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -412,7 +412,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -411,7 +411,7 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
@@ -411,8 +411,8 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -55,25 +55,18 @@
       <top style="none"/>
       <bottom style="none"/>
     </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
   </borders>
-  <cellStyleXfs/>
   <cellXfs count="4">
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -29,6 +29,8 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -72,7 +72,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <numFmts/>
 </styleSheet>
 </file>
 

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -397,44 +397,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <pageSetUpPr fitToPage="0"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.85"/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <dimension ref="A1:C2"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="0" customWidth="0" hidden="0" max="1" min="1" outlineLevel="0" style="1" width="9.5"/>
-    <col collapsed="0" customWidth="0" hidden="0" max="2" min="2" outlineLevel="0" style="1" width="9.5"/>
-    <col collapsed="0" customWidth="0" hidden="0" max="3" min="3" outlineLevel="0" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s"/>
       <c r="C1" s="3" t="s"/>
     </row>
-    <row outlineLevel="0" r="2">
+    <row r="2">
       <c r="A2" s="3" t="s"/>
       <c r="B2" s="3" t="s"/>
       <c r="C2" s="3" t="s"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr date1904="false" showObjects="all"/>
-  <workbookProtection/>
+  <fileVersion appName="JS XLSX"/>
+  <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>I am a cell!</t>
+    <t>I am a cell2!</t>
   </si>
 </sst>
 </file>
@@ -29,8 +27,6 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -50,7 +46,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -59,16 +61,16 @@
     </border>
   </borders>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFill="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -396,43 +398,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" outlineLevel="0">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s"/>
-      <c r="C1" s="3" t="s"/>
+      <c r="B1" t="s" s="3"/>
+      <c r="C1" t="s" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s"/>
-      <c r="B2" s="3" t="s"/>
-      <c r="C2" s="3" t="s"/>
+    <row r="2" outlineLevel="0">
+      <c r="A2" t="s" s="3"/>
+      <c r="B2" t="s" s="3"/>
+      <c r="C2" t="s" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/examples/simple.xlsx
+++ b/examples/simple.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>I am a cell2!</t>
+    <t>I am a cell!</t>
   </si>
 </sst>
 </file>
@@ -46,13 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -60,17 +54,14 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -410,22 +401,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3"/>
-      <c r="C1" t="s" s="3"/>
+      <c r="B1" t="s" s="2"/>
+      <c r="C1" t="s" s="2"/>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="3"/>
-      <c r="B2" t="s" s="3"/>
-      <c r="C2" t="s" s="3"/>
+      <c r="A2" t="s" s="2"/>
+      <c r="B2" t="s" s="2"/>
+      <c r="C2" t="s" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
